--- a/src/data/profiles/xlsx/bluff/profile 26-3 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 26-3 graph.xlsx
@@ -7608,11 +7608,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26703850"/>
-        <c:axId val="67389143"/>
+        <c:axId val="13401657"/>
+        <c:axId val="60429635"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26703850"/>
+        <c:axId val="13401657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7647,12 +7647,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67389143"/>
+        <c:crossAx val="60429635"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67389143"/>
+        <c:axId val="60429635"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7696,7 +7696,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26703850"/>
+        <c:crossAx val="13401657"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
